--- a/data/pca/factorExposure/factorExposure_2012-09-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-09-20.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001833346731653864</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001817260224369608</v>
+      </c>
+      <c r="C2">
+        <v>0.02841304346288214</v>
+      </c>
+      <c r="D2">
+        <v>0.005071789793141482</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0006779792724136662</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.007367745888578255</v>
+      </c>
+      <c r="C4">
+        <v>0.08336687331478627</v>
+      </c>
+      <c r="D4">
+        <v>0.06949729062777005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0047852415427211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01486468430149677</v>
+      </c>
+      <c r="C6">
+        <v>0.1159862478555532</v>
+      </c>
+      <c r="D6">
+        <v>0.02421987913832539</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001667239077783677</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.005021403127668783</v>
+      </c>
+      <c r="C7">
+        <v>0.05786023571282276</v>
+      </c>
+      <c r="D7">
+        <v>0.03538187031264102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0004577440517555447</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005994921349105576</v>
+      </c>
+      <c r="C8">
+        <v>0.03550872876448129</v>
+      </c>
+      <c r="D8">
+        <v>0.04074227968415733</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.00154965378264649</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005356611660818631</v>
+      </c>
+      <c r="C9">
+        <v>0.07070827679098876</v>
+      </c>
+      <c r="D9">
+        <v>0.0752769113983453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.00460145162870512</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.004916867717412308</v>
+      </c>
+      <c r="C10">
+        <v>0.05476761294007729</v>
+      </c>
+      <c r="D10">
+        <v>-0.1892960148008892</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.001518796724973043</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005773343950232275</v>
+      </c>
+      <c r="C11">
+        <v>0.07860421872417647</v>
+      </c>
+      <c r="D11">
+        <v>0.06598118268634347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.001062936839699586</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004459315772438067</v>
+      </c>
+      <c r="C12">
+        <v>0.06396016860486319</v>
+      </c>
+      <c r="D12">
+        <v>0.05170273755533011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.001426652808824888</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008502063211036807</v>
+      </c>
+      <c r="C13">
+        <v>0.06735090679725067</v>
+      </c>
+      <c r="D13">
+        <v>0.06147914200450041</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.002066972187596511</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0007729200892023247</v>
+      </c>
+      <c r="C14">
+        <v>0.04166600229364725</v>
+      </c>
+      <c r="D14">
+        <v>0.01317025252876908</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.001395495950235085</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.00594073969554321</v>
+      </c>
+      <c r="C15">
+        <v>0.03984665789882473</v>
+      </c>
+      <c r="D15">
+        <v>0.03005816287890187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>1.585054863989499e-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005153592217926327</v>
+      </c>
+      <c r="C16">
+        <v>0.06372570304307425</v>
+      </c>
+      <c r="D16">
+        <v>0.05833477035116449</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.002261524914942556</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008760157228548782</v>
+      </c>
+      <c r="C20">
+        <v>0.06274700510284861</v>
+      </c>
+      <c r="D20">
+        <v>0.05264871593065461</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005765477230023125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009357623990206119</v>
+      </c>
+      <c r="C21">
+        <v>0.01892504602419903</v>
+      </c>
+      <c r="D21">
+        <v>0.04324692099826811</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01920502343912743</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.00694528951858971</v>
+      </c>
+      <c r="C22">
+        <v>0.0867656762492361</v>
+      </c>
+      <c r="D22">
+        <v>0.1243367376784494</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01889635163708741</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006657620139886392</v>
+      </c>
+      <c r="C23">
+        <v>0.08713298683331623</v>
+      </c>
+      <c r="D23">
+        <v>0.1254888121139867</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001877793988790011</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005667299794383008</v>
+      </c>
+      <c r="C24">
+        <v>0.07553795292629814</v>
+      </c>
+      <c r="D24">
+        <v>0.06873944346965023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003588250681967703</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003219562254118277</v>
+      </c>
+      <c r="C25">
+        <v>0.07705606794298939</v>
+      </c>
+      <c r="D25">
+        <v>0.06801885004122218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.002103691358404062</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003649413395937924</v>
+      </c>
+      <c r="C26">
+        <v>0.03809947581653174</v>
+      </c>
+      <c r="D26">
+        <v>0.0260610698843916</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.00446572663874941</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.0015955704549509</v>
+      </c>
+      <c r="C28">
+        <v>0.1047390305950683</v>
+      </c>
+      <c r="D28">
+        <v>-0.3239615597450928</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0009019800725953807</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002691895146365631</v>
+      </c>
+      <c r="C29">
+        <v>0.04818749447852777</v>
+      </c>
+      <c r="D29">
+        <v>0.01157562375668395</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003769643703820723</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.00972825128932431</v>
+      </c>
+      <c r="C30">
+        <v>0.1408235571918041</v>
+      </c>
+      <c r="D30">
+        <v>0.1119263836254969</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.002164253929481823</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006341614166081025</v>
+      </c>
+      <c r="C31">
+        <v>0.04292104764905178</v>
+      </c>
+      <c r="D31">
+        <v>0.03364977390172573</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0008678288071499342</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003691156006954808</v>
+      </c>
+      <c r="C32">
+        <v>0.03986935309259254</v>
+      </c>
+      <c r="D32">
+        <v>0.0235231848416208</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-3.374154026464422e-05</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.009134516511859895</v>
+      </c>
+      <c r="C33">
+        <v>0.08818388532613874</v>
+      </c>
+      <c r="D33">
+        <v>0.06727794098422428</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.001871983528584385</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004300307893201251</v>
+      </c>
+      <c r="C34">
+        <v>0.05715841408774943</v>
+      </c>
+      <c r="D34">
+        <v>0.05940351515210187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.002056026824499309</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005410622135464144</v>
+      </c>
+      <c r="C35">
+        <v>0.04005417696260617</v>
+      </c>
+      <c r="D35">
+        <v>0.0212308473370579</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.005094056494329383</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001508755737645053</v>
+      </c>
+      <c r="C36">
+        <v>0.0238584263958202</v>
+      </c>
+      <c r="D36">
+        <v>0.02750571922939466</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.00324217582589995</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009396523954761675</v>
+      </c>
+      <c r="C38">
+        <v>0.03941530941321233</v>
+      </c>
+      <c r="D38">
+        <v>0.01293244449860457</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01068292733195269</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001219510980853776</v>
+      </c>
+      <c r="C39">
+        <v>0.1125363933253029</v>
+      </c>
+      <c r="D39">
+        <v>0.07789838195884712</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.003411127072551604</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.003885157936300408</v>
+      </c>
+      <c r="C40">
+        <v>0.09033356649521261</v>
+      </c>
+      <c r="D40">
+        <v>0.01818111137055178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.001169888272445009</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007254651230370317</v>
+      </c>
+      <c r="C41">
+        <v>0.03904567942902935</v>
+      </c>
+      <c r="D41">
+        <v>0.04121998079216619</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.001376308775512699</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.00387825876533504</v>
+      </c>
+      <c r="C43">
+        <v>0.0524766910604886</v>
+      </c>
+      <c r="D43">
+        <v>0.02956491395301103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.007099004029141063</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.002628680701169384</v>
+      </c>
+      <c r="C44">
+        <v>0.1031698898546028</v>
+      </c>
+      <c r="D44">
+        <v>0.06988771855152739</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001557826959510094</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001647301031322962</v>
+      </c>
+      <c r="C46">
+        <v>0.03280689192644413</v>
+      </c>
+      <c r="D46">
+        <v>0.03531211706013079</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0009575202121176002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002281515793142099</v>
+      </c>
+      <c r="C47">
+        <v>0.03503162962529828</v>
+      </c>
+      <c r="D47">
+        <v>0.02305357915981258</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003502774615389948</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006712363357721099</v>
+      </c>
+      <c r="C48">
+        <v>0.02980991114000328</v>
+      </c>
+      <c r="D48">
+        <v>0.03724869882394306</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.004080113202410421</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01802449362352782</v>
+      </c>
+      <c r="C49">
+        <v>0.1906168458972465</v>
+      </c>
+      <c r="D49">
+        <v>0.004404973009025339</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0008773069023507931</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003541254448304513</v>
+      </c>
+      <c r="C50">
+        <v>0.04195795649496484</v>
+      </c>
+      <c r="D50">
+        <v>0.04098398709990381</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.001161867375558402</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.00472543047756172</v>
+      </c>
+      <c r="C51">
+        <v>0.02684312793078453</v>
+      </c>
+      <c r="D51">
+        <v>0.02284957803049069</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.007271386718655666</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02158044176224697</v>
+      </c>
+      <c r="C53">
+        <v>0.1712277724094562</v>
+      </c>
+      <c r="D53">
+        <v>0.02186661866670043</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.004166750101294335</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.00942713433541051</v>
+      </c>
+      <c r="C54">
+        <v>0.05486781863661121</v>
+      </c>
+      <c r="D54">
+        <v>0.0428062729881686</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.001311652528234506</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009853858641450493</v>
+      </c>
+      <c r="C55">
+        <v>0.1075675025088609</v>
+      </c>
+      <c r="D55">
+        <v>0.03862467814942477</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.007850223331533171</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02062239777669016</v>
+      </c>
+      <c r="C56">
+        <v>0.1745832655841713</v>
+      </c>
+      <c r="D56">
+        <v>0.01531137032922681</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.002543000991052043</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01932288577611305</v>
+      </c>
+      <c r="C58">
+        <v>0.103676918677903</v>
+      </c>
+      <c r="D58">
+        <v>0.07216015336563794</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.0002075527768770402</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.01017937440452713</v>
+      </c>
+      <c r="C59">
+        <v>0.1691436263194803</v>
+      </c>
+      <c r="D59">
+        <v>-0.3415794993336558</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.005911555216741555</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02521969826741142</v>
+      </c>
+      <c r="C60">
+        <v>0.2268402659145113</v>
+      </c>
+      <c r="D60">
+        <v>0.01679528928668711</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01019990663684828</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001710062204384725</v>
+      </c>
+      <c r="C61">
+        <v>0.09400587078380379</v>
+      </c>
+      <c r="D61">
+        <v>0.05764622499497087</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1477120191982916</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1499277742967493</v>
+      </c>
+      <c r="C62">
+        <v>0.09840960564389621</v>
+      </c>
+      <c r="D62">
+        <v>0.01981514856362192</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0009126467160419317</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006467450631143761</v>
+      </c>
+      <c r="C63">
+        <v>0.05224688605347921</v>
+      </c>
+      <c r="D63">
+        <v>0.03564082553004687</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.007650791213519924</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01608529411742224</v>
+      </c>
+      <c r="C64">
+        <v>0.1058144252458117</v>
+      </c>
+      <c r="D64">
+        <v>0.05422130679246626</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.007576163963486867</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01777395151935041</v>
+      </c>
+      <c r="C65">
+        <v>0.1211036448471957</v>
+      </c>
+      <c r="D65">
+        <v>0.03003510234444069</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.001442001515564086</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01354511032927089</v>
+      </c>
+      <c r="C66">
+        <v>0.1606195627202755</v>
+      </c>
+      <c r="D66">
+        <v>0.1091596458951737</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.006277852223100701</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01589124683468534</v>
+      </c>
+      <c r="C67">
+        <v>0.07188462018592527</v>
+      </c>
+      <c r="D67">
+        <v>0.02283631163716854</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.002559603016208133</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.0009996350110644397</v>
+      </c>
+      <c r="C68">
+        <v>0.0869379365899777</v>
+      </c>
+      <c r="D68">
+        <v>-0.2566794819059011</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.0005636344867853576</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006574622028181079</v>
+      </c>
+      <c r="C69">
+        <v>0.05254681062546786</v>
+      </c>
+      <c r="D69">
+        <v>0.03853900221793036</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.001140758548772496</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002401855683433295</v>
+      </c>
+      <c r="C70">
+        <v>0.00725453834987679</v>
+      </c>
+      <c r="D70">
+        <v>0.0009587798387579898</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.002616622082946798</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005531593468379223</v>
+      </c>
+      <c r="C71">
+        <v>0.0914445192049638</v>
+      </c>
+      <c r="D71">
+        <v>-0.3011552749107267</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.003137631247138152</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01709908419149435</v>
+      </c>
+      <c r="C72">
+        <v>0.1564589550996077</v>
+      </c>
+      <c r="D72">
+        <v>0.01126612284538685</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.00891445924599297</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03212958205649027</v>
+      </c>
+      <c r="C73">
+        <v>0.2831831983765886</v>
+      </c>
+      <c r="D73">
+        <v>0.05000404731338172</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005922190595945362</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002117279940806353</v>
+      </c>
+      <c r="C74">
+        <v>0.1022856727811955</v>
+      </c>
+      <c r="D74">
+        <v>0.03467346348505103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.001477630313934346</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01085591301422257</v>
+      </c>
+      <c r="C75">
+        <v>0.1209687919199207</v>
+      </c>
+      <c r="D75">
+        <v>0.02736802544725316</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01042676080489669</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02259788261333993</v>
+      </c>
+      <c r="C76">
+        <v>0.1469394693788301</v>
+      </c>
+      <c r="D76">
+        <v>0.05743587850398164</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.004193456990714903</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02086927279873138</v>
+      </c>
+      <c r="C77">
+        <v>0.1136177789400596</v>
+      </c>
+      <c r="D77">
+        <v>0.05626160789021703</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.005492470771054232</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01482737016977844</v>
+      </c>
+      <c r="C78">
+        <v>0.09670943346716979</v>
+      </c>
+      <c r="D78">
+        <v>0.0816441891561175</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02692679593485547</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03861984793984993</v>
+      </c>
+      <c r="C79">
+        <v>0.1557635081277095</v>
+      </c>
+      <c r="D79">
+        <v>0.03381382803663897</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.005952205391689577</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.009930703174028721</v>
+      </c>
+      <c r="C80">
+        <v>0.03850487906603176</v>
+      </c>
+      <c r="D80">
+        <v>0.03168019455727247</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.004176923687916364</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01589597492860848</v>
+      </c>
+      <c r="C81">
+        <v>0.1287046423875222</v>
+      </c>
+      <c r="D81">
+        <v>0.0399998329284959</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.007908163989411453</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.02002850800249275</v>
+      </c>
+      <c r="C82">
+        <v>0.1389320360125322</v>
+      </c>
+      <c r="D82">
+        <v>0.03719806596274606</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.00451055600174831</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01232657629894235</v>
+      </c>
+      <c r="C83">
+        <v>0.06436690777022119</v>
+      </c>
+      <c r="D83">
+        <v>0.04387845051344395</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01019950444189786</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01269496779437265</v>
+      </c>
+      <c r="C84">
+        <v>0.03864342393793885</v>
+      </c>
+      <c r="D84">
+        <v>-0.006522102187596999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01806962031407138</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02915643798741208</v>
+      </c>
+      <c r="C85">
+        <v>0.1233035528461582</v>
+      </c>
+      <c r="D85">
+        <v>0.03998345512140065</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002409282952963565</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.004259116379167015</v>
+      </c>
+      <c r="C86">
+        <v>0.04894981972534698</v>
+      </c>
+      <c r="D86">
+        <v>0.03125007061253641</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.0005045736589551442</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01128464103562607</v>
+      </c>
+      <c r="C87">
+        <v>0.1261712824151774</v>
+      </c>
+      <c r="D87">
+        <v>0.07887465842426471</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.009625152061761144</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.003075927603967707</v>
+      </c>
+      <c r="C88">
+        <v>0.06291705533651641</v>
+      </c>
+      <c r="D88">
+        <v>0.0296415180671339</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.008135882109011347</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001966860092247583</v>
+      </c>
+      <c r="C89">
+        <v>0.1391639004579502</v>
+      </c>
+      <c r="D89">
+        <v>-0.3159209858947661</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.0001592261350123585</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.006514082057462883</v>
+      </c>
+      <c r="C90">
+        <v>0.120446945162087</v>
+      </c>
+      <c r="D90">
+        <v>-0.3120927642164329</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001682398126928108</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01054882501672633</v>
+      </c>
+      <c r="C91">
+        <v>0.09891041612763529</v>
+      </c>
+      <c r="D91">
+        <v>0.02737388864564144</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.003661374763773396</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0004118770990042279</v>
+      </c>
+      <c r="C92">
+        <v>0.1341012487323761</v>
+      </c>
+      <c r="D92">
+        <v>-0.3242733394976104</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.001135047527318533</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.003997434170836285</v>
+      </c>
+      <c r="C93">
+        <v>0.1050111382962288</v>
+      </c>
+      <c r="D93">
+        <v>-0.2975851339409289</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.009823077730195836</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02208050169859796</v>
+      </c>
+      <c r="C94">
+        <v>0.1422630543055834</v>
+      </c>
+      <c r="D94">
+        <v>0.0550925764998319</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.006194653979711469</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01655542758696157</v>
+      </c>
+      <c r="C95">
+        <v>0.120092767777561</v>
+      </c>
+      <c r="D95">
+        <v>0.06738846973758307</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.015798667042809</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03684516221399058</v>
+      </c>
+      <c r="C97">
+        <v>0.2258745122100697</v>
+      </c>
+      <c r="D97">
+        <v>0.002935551200108989</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.01215332210483377</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03841504263159378</v>
+      </c>
+      <c r="C98">
+        <v>0.2581832826559782</v>
+      </c>
+      <c r="D98">
+        <v>0.03180042092489307</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9870616305952343</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9810541718824771</v>
+      </c>
+      <c r="C99">
+        <v>-0.1212580568962307</v>
+      </c>
+      <c r="D99">
+        <v>-0.02423311927416247</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0008269372434133402</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002732685406512738</v>
+      </c>
+      <c r="C101">
+        <v>0.04831103771133523</v>
+      </c>
+      <c r="D101">
+        <v>0.01194735441231225</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
